--- a/Known_Install_log_Issues_.xlsx
+++ b/Known_Install_log_Issues_.xlsx
@@ -1578,8 +1578,9 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*" count="2">
   <userInfo guid="{81BC102B-4386-441C-9BCC-A78F9902417C}" name="Zou, Barry" id="-1742489466" dateTime="2014-06-26T12:01:56"/>
+  <userInfo guid="{81BC102B-4386-441C-9BCC-A78F9902417C}" name="Risa Newyear-Ramirez" id="-44018680" dateTime="2014-08-17T15:55:46"/>
 </users>
 </file>
 

--- a/Known_Install_log_Issues_.xlsx
+++ b/Known_Install_log_Issues_.xlsx
@@ -1316,21 +1316,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{81BC102B-4386-441C-9BCC-A78F9902417C}" diskRevisions="1" revisionId="323" version="2">
-  <header guid="{B4AFC1EE-52D9-4683-842D-F76E69A1F482}" dateTime="2014-06-10T08:08:25" maxSheetId="4" userName="Zou, Barry" r:id="rId54" minRId="311">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8046E222-977D-46C5-9B06-7EC960062F44}" dateTime="2014-06-10T08:29:56" maxSheetId="4" userName="Zou, Barry" r:id="rId55" minRId="312">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*" guid="{81BC102B-4386-441C-9BCC-A78F9902417C}" diskRevisions="1" revisionId="323" version="2">
   <header guid="{81BC102B-4386-441C-9BCC-A78F9902417C}" dateTime="2014-06-27T09:12:18" maxSheetId="4" userName="Zhou, Jill" r:id="rId56" minRId="313" maxRId="323">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -1339,130 +1325,6 @@
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="311" sId="1">
-    <oc r="D9">
-      <f>-B7</f>
-    </oc>
-    <nc r="D9" t="inlineStr">
-      <is>
-        <t>Barry</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="312" sId="1" ref="A22:XFD22" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A22:XFD22" start="0" length="0"/>
-    <rcc rId="0" sId="1">
-      <nc r="A22" t="inlineStr">
-        <is>
-          <t>Server</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B22" t="inlineStr">
-        <is>
-          <r>
-            <t>Line 37105:</t>
-          </r>
-          <r>
-            <rPr>
-              <sz val="11"/>
-              <color rgb="FFFF0000"/>
-              <rFont val="Calibri"/>
-              <family val="2"/>
-            </rPr>
-            <t xml:space="preserve"> ERROR: ERROR: this server should not be using the SSOService directly because it is a Service or Container Support Service</t>
-          </r>
-          <r>
-            <rPr>
-              <sz val="11"/>
-              <color theme="1"/>
-              <rFont val="Calibri"/>
-              <family val="2"/>
-            </rPr>
-            <t xml:space="preserve">. Line 37125: </t>
-          </r>
-          <r>
-            <rPr>
-              <sz val="11"/>
-              <color rgb="FFFF0000"/>
-              <rFont val="Calibri"/>
-              <family val="2"/>
-            </rPr>
-            <t>ERROR: ERROR: this server should not be using the TraceLogService directly because it is a Service or Container Support Service.</t>
-          </r>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C22" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1">
-      <nc r="D22" t="inlineStr">
-        <is>
-          <t>Risa</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1" numFmtId="20">
-      <nc r="E22">
-        <v>41716</v>
-      </nc>
-      <ndxf>
-        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1">
-      <nc r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Explorer </t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="1">
-      <nc r="G22" t="inlineStr">
-        <is>
-          <t>4.0 SP07 Patch 7.9</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="1">
-      <nc r="H22" t="inlineStr">
-        <is>
-          <t>Windows</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="1">
-      <nc r="I22" t="inlineStr">
-        <is>
-          <t>Aurora_40_SP07_Patch_REL</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="1">
-      <nc r="K22" t="inlineStr">
-        <is>
-          <t>1378_greatest</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1578,9 +1440,8 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*" count="1">
   <userInfo guid="{81BC102B-4386-441C-9BCC-A78F9902417C}" name="Zou, Barry" id="-1742489466" dateTime="2014-06-26T12:01:56"/>
-  <userInfo guid="{81BC102B-4386-441C-9BCC-A78F9902417C}" name="Risa Newyear-Ramirez" id="-44018680" dateTime="2014-08-17T15:55:46"/>
 </users>
 </file>
 
